--- a/va_facility_data_2025-02-20/Charlie Norwood Department of Veterans Affairs Medical Center - Facility Data.xlsx"; filename*=UTF-8''Charlie%20Norwood%20Department%20of%20Veterans%20Affairs%20Medical%20Center%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Charlie Norwood Department of Veterans Affairs Medical Center - Facility Data.xlsx"; filename*=UTF-8''Charlie%20Norwood%20Department%20of%20Veterans%20Affairs%20Medical%20Center%20-%20Facility%20Data.xlsx
@@ -2,12 +2,12 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Effective Care" sheetId="1" r:id="R772006a438c64e08a811a996d93aef8e"/>
-    <x:sheet name="Safe Care" sheetId="2" r:id="R08c03841a2b449e490b16a29ab80bca5"/>
-    <x:sheet name="Veteran-Centered Care" sheetId="3" r:id="R59222de06df74e218ef2213963a2d501"/>
-    <x:sheet name="Wait Times" sheetId="4" r:id="R45c2ad3f2e954c3e8ef533093dd172d1"/>
-    <x:sheet name="Satisfaction with Care" sheetId="5" r:id="Rf1a3e98fe69349f2adcb2a5fb904b7e4"/>
-    <x:sheet name="Outpatient Score" sheetId="6" r:id="Rc02987f83d1f49cdbb372ce81c8a9628"/>
+    <x:sheet name="Effective Care" sheetId="1" r:id="R3218e5f7a3174303981c6bc5367e2240"/>
+    <x:sheet name="Safe Care" sheetId="2" r:id="Rb193fa30ebb54a659bca9b175ca30078"/>
+    <x:sheet name="Veteran-Centered Care" sheetId="3" r:id="R4ac31431d678485da85c861adb1166d7"/>
+    <x:sheet name="Wait Times" sheetId="4" r:id="R2a67fe99e2ef4564a07fe0f026bd74a5"/>
+    <x:sheet name="Satisfaction with Care" sheetId="5" r:id="Rf600c6664ce8497fb36b67e58c14ac2b"/>
+    <x:sheet name="Outpatient Score" sheetId="6" r:id="R37775d0746114ed2bcc2f59044f7c5e4"/>
   </x:sheets>
 </x:workbook>
 </file>
